--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_11-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_11-57.xlsx
@@ -101,6 +101,12 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -113,7 +119,7 @@
     <t>-5:0</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>Tuesday, 13 January, 2026 11:57 AM</t>
@@ -1050,11 +1056,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1076,45 +1082,71 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="K19" s="10">
-        <v>1337.9500000000001</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="11">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c t="s" r="F20" s="12">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>20</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c t="s" r="I20" s="14">
+    </row>
+    <row r="20" ht="26.25" customHeight="1">
+      <c r="K20" s="10">
+        <v>1364.9500000000001</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="11">
         <v>37</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c t="s" r="F21" s="12">
+        <v>38</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c t="s" r="I21" s="14">
+        <v>39</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="59">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1167,10 +1199,13 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:N21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
